--- a/src/tabel-vlsm-cidr.xlsx
+++ b/src/tabel-vlsm-cidr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imdfauzan\Documents\KULIAH ITS\4. Komunikasi Data dan Jaringan Komputer\Minggu 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imdfauzan\Documents\KULIAH ITS\4. Komunikasi Data dan Jaringan Komputer\Minggu 11\Jarkom-Subnetting-Cisco\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07FB5B8-D4C6-44AE-B128-F0EEEF499A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ADBA89-FB11-48E1-80CD-C303BFF36A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="18514" windowHeight="11280" xr2:uid="{F4D01985-A031-429C-A717-C99DCF9BB603}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="18514" windowHeight="11280" activeTab="1" xr2:uid="{F4D01985-A031-429C-A717-C99DCF9BB603}"/>
   </bookViews>
   <sheets>
     <sheet name="VLSM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>NRP: 5027241100</t>
   </si>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8D054D-7675-4051-82DE-4A5E1CD39158}">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1251,6 +1251,11 @@
         <v>69</v>
       </c>
     </row>
+    <row r="20" spans="4:7">
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="21" spans="4:7">
       <c r="G21" t="s">
         <v>72</v>
@@ -1280,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF91D300-706D-49A6-BDCB-B9A42EF18587}">
-  <dimension ref="B3:F4"/>
+  <dimension ref="B3:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1329,6 +1334,11 @@
         <v>78</v>
       </c>
     </row>
+    <row r="12" spans="2:6">
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
